--- a/automate-excel-tasks/Employees.xlsx
+++ b/automate-excel-tasks/Employees.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeData" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,8 +26,38 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="000000FF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="003366FF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="00FFCC00"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,8 +82,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="00F7FE2E"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -76,11 +111,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="00322FEC"/>
+      </left>
+      <right style="double">
+        <color rgb="00322FEC"/>
+      </right>
+      <top style="double">
+        <color rgb="00322FEC"/>
+      </top>
+      <bottom style="double">
+        <color rgb="00322FEC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -96,6 +146,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,8 +513,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -454,8 +525,8 @@
     <col width="11.7109375" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="11.85546875" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
     <col width="19.28515625" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
-    <col width="9.140625" customWidth="1" style="2" min="7" max="9"/>
-    <col width="9.140625" customWidth="1" style="2" min="10" max="16384"/>
+    <col width="9.140625" customWidth="1" style="2" min="7" max="10"/>
+    <col width="9.140625" customWidth="1" style="2" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -496,7 +567,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Luke</t>
+          <t>Mihai</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -662,7 +733,7 @@
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>Richard</t>
         </is>
@@ -1010,7 +1081,7 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
